--- a/page/eb03/w01/eb03-w01.xlsx
+++ b/page/eb03/w01/eb03-w01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="242">
   <si>
     <t>image-fn.tif</t>
   </si>
@@ -405,6 +405,351 @@
   </si>
   <si>
     <t>footnote continues onto the next FOUR pages</t>
+  </si>
+  <si>
+    <t>verse</t>
+  </si>
+  <si>
+    <t>tome verse</t>
+  </si>
+  <si>
+    <t>figure in footnote</t>
+  </si>
+  <si>
+    <t>eb03-w01-0001</t>
+  </si>
+  <si>
+    <t>eb03-w01-0002</t>
+  </si>
+  <si>
+    <t>eb03-w01-0003</t>
+  </si>
+  <si>
+    <t>eb03-w01-0004</t>
+  </si>
+  <si>
+    <t>eb03-w01-0005</t>
+  </si>
+  <si>
+    <t>eb03-w01-0006</t>
+  </si>
+  <si>
+    <t>eb03-w01-0007</t>
+  </si>
+  <si>
+    <t>eb03-w01-0008</t>
+  </si>
+  <si>
+    <t>eb03-w01-0009</t>
+  </si>
+  <si>
+    <t>eb03-w01-0010</t>
+  </si>
+  <si>
+    <t>eb03-w01-0011</t>
+  </si>
+  <si>
+    <t>eb03-w01-0012</t>
+  </si>
+  <si>
+    <t>eb03-w01-0013</t>
+  </si>
+  <si>
+    <t>eb03-w01-0014</t>
+  </si>
+  <si>
+    <t>eb03-w01-0015</t>
+  </si>
+  <si>
+    <t>eb03-w01-0016</t>
+  </si>
+  <si>
+    <t>eb03-w01-0017</t>
+  </si>
+  <si>
+    <t>eb03-w01-0018</t>
+  </si>
+  <si>
+    <t>eb03-w01-0019</t>
+  </si>
+  <si>
+    <t>eb03-w01-0020</t>
+  </si>
+  <si>
+    <t>eb03-w01-0021</t>
+  </si>
+  <si>
+    <t>eb03-w01-0022</t>
+  </si>
+  <si>
+    <t>eb03-w01-0023</t>
+  </si>
+  <si>
+    <t>eb03-w01-0024</t>
+  </si>
+  <si>
+    <t>eb03-w01-0025</t>
+  </si>
+  <si>
+    <t>eb03-w01-0026</t>
+  </si>
+  <si>
+    <t>eb03-w01-0027</t>
+  </si>
+  <si>
+    <t>eb03-w01-0028</t>
+  </si>
+  <si>
+    <t>eb03-w01-0029</t>
+  </si>
+  <si>
+    <t>eb03-w01-0030</t>
+  </si>
+  <si>
+    <t>eb03-w01-0031</t>
+  </si>
+  <si>
+    <t>eb03-w01-0032</t>
+  </si>
+  <si>
+    <t>eb03-w01-0033</t>
+  </si>
+  <si>
+    <t>eb03-w01-0034</t>
+  </si>
+  <si>
+    <t>eb03-w01-0035</t>
+  </si>
+  <si>
+    <t>eb03-w01-0036</t>
+  </si>
+  <si>
+    <t>eb03-w01-0037</t>
+  </si>
+  <si>
+    <t>eb03-w01-0038</t>
+  </si>
+  <si>
+    <t>eb03-w01-0039</t>
+  </si>
+  <si>
+    <t>eb03-w01-0040</t>
+  </si>
+  <si>
+    <t>eb03-w01-0041</t>
+  </si>
+  <si>
+    <t>eb03-w01-0042</t>
+  </si>
+  <si>
+    <t>eb03-w01-0043</t>
+  </si>
+  <si>
+    <t>eb03-w01-0044</t>
+  </si>
+  <si>
+    <t>eb03-w01-0045</t>
+  </si>
+  <si>
+    <t>eb03-w01-0046</t>
+  </si>
+  <si>
+    <t>eb03-w01-0047</t>
+  </si>
+  <si>
+    <t>eb03-w01-0048</t>
+  </si>
+  <si>
+    <t>eb03-w01-0049</t>
+  </si>
+  <si>
+    <t>eb03-w01-0050</t>
+  </si>
+  <si>
+    <t>eb03-w01-0051</t>
+  </si>
+  <si>
+    <t>eb03-w01-0052</t>
+  </si>
+  <si>
+    <t>eb03-w01-0053</t>
+  </si>
+  <si>
+    <t>eb03-w01-0054</t>
+  </si>
+  <si>
+    <t>eb03-w01-0055</t>
+  </si>
+  <si>
+    <t>eb03-w01-0056</t>
+  </si>
+  <si>
+    <t>eb03-w01-0057</t>
+  </si>
+  <si>
+    <t>eb03-w01-0058</t>
+  </si>
+  <si>
+    <t>eb03-w01-0059</t>
+  </si>
+  <si>
+    <t>eb03-w01-0060</t>
+  </si>
+  <si>
+    <t>eb03-w01-0061</t>
+  </si>
+  <si>
+    <t>eb03-w01-0062</t>
+  </si>
+  <si>
+    <t>eb03-w01-0063</t>
+  </si>
+  <si>
+    <t>eb03-w01-0064</t>
+  </si>
+  <si>
+    <t>eb03-w01-0065</t>
+  </si>
+  <si>
+    <t>eb03-w01-0066</t>
+  </si>
+  <si>
+    <t>eb03-w01-0067</t>
+  </si>
+  <si>
+    <t>eb03-w01-0068</t>
+  </si>
+  <si>
+    <t>eb03-w01-0069</t>
+  </si>
+  <si>
+    <t>eb03-w01-0070</t>
+  </si>
+  <si>
+    <t>eb03-w01-0071</t>
+  </si>
+  <si>
+    <t>eb03-w01-0072</t>
+  </si>
+  <si>
+    <t>eb03-w01-0073</t>
+  </si>
+  <si>
+    <t>eb03-w01-0074</t>
+  </si>
+  <si>
+    <t>eb03-w01-0075</t>
+  </si>
+  <si>
+    <t>eb03-w01-0076</t>
+  </si>
+  <si>
+    <t>eb03-w01-0077</t>
+  </si>
+  <si>
+    <t>eb03-w01-0078</t>
+  </si>
+  <si>
+    <t>eb03-w01-0079</t>
+  </si>
+  <si>
+    <t>eb03-w01-0080</t>
+  </si>
+  <si>
+    <t>eb03-w01-0081</t>
+  </si>
+  <si>
+    <t>eb03-w01-0082</t>
+  </si>
+  <si>
+    <t>eb03-w01-0083</t>
+  </si>
+  <si>
+    <t>eb03-w01-0084</t>
+  </si>
+  <si>
+    <t>eb03-w01-0085</t>
+  </si>
+  <si>
+    <t>eb03-w01-0086</t>
+  </si>
+  <si>
+    <t>eb03-w01-0087</t>
+  </si>
+  <si>
+    <t>eb03-w01-0088</t>
+  </si>
+  <si>
+    <t>eb03-w01-0089</t>
+  </si>
+  <si>
+    <t>eb03-w01-0090</t>
+  </si>
+  <si>
+    <t>eb03-w01-0091</t>
+  </si>
+  <si>
+    <t>eb03-w01-0092</t>
+  </si>
+  <si>
+    <t>eb03-w01-0093</t>
+  </si>
+  <si>
+    <t>eb03-w01-0094</t>
+  </si>
+  <si>
+    <t>eb03-w01-0095</t>
+  </si>
+  <si>
+    <t>eb03-w01-0096</t>
+  </si>
+  <si>
+    <t>eb03-w01-0097</t>
+  </si>
+  <si>
+    <t>eb03-w01-0098</t>
+  </si>
+  <si>
+    <t>eb03-w01-0099</t>
+  </si>
+  <si>
+    <t>eb03-w01-0100</t>
+  </si>
+  <si>
+    <t>eb03-w01-0101</t>
+  </si>
+  <si>
+    <t>eb03-w01-0102</t>
+  </si>
+  <si>
+    <t>eb03-w01-0103</t>
+  </si>
+  <si>
+    <t>eb03-w01-0104</t>
+  </si>
+  <si>
+    <t>eb03-w01-0105</t>
+  </si>
+  <si>
+    <t>eb03-w01-0106</t>
+  </si>
+  <si>
+    <t>eb03-w01-0107</t>
+  </si>
+  <si>
+    <t>eb03-w01-0108</t>
+  </si>
+  <si>
+    <t>eb03-w01-0109</t>
+  </si>
+  <si>
+    <t>eb03-w01-0110</t>
+  </si>
+  <si>
+    <t>eb03-w01-0111</t>
+  </si>
+  <si>
+    <t>eb03-w01-0112</t>
   </si>
 </sst>
 </file>
@@ -747,13 +1092,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="I109" sqref="I109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
     <col min="9" max="9" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -805,6 +1151,9 @@
       <c r="D2">
         <v>697</v>
       </c>
+      <c r="E2" t="s">
+        <v>130</v>
+      </c>
       <c r="I2" t="s">
         <v>124</v>
       </c>
@@ -819,6 +1168,9 @@
       <c r="D3">
         <v>698</v>
       </c>
+      <c r="E3" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -830,6 +1182,9 @@
       <c r="D4">
         <v>699</v>
       </c>
+      <c r="E4" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -841,6 +1196,9 @@
       <c r="D5">
         <v>700</v>
       </c>
+      <c r="E5" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -852,6 +1210,9 @@
       <c r="D6">
         <v>701</v>
       </c>
+      <c r="E6" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -863,6 +1224,9 @@
       <c r="D7">
         <v>702</v>
       </c>
+      <c r="E7" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -873,6 +1237,9 @@
       </c>
       <c r="D8">
         <v>703</v>
+      </c>
+      <c r="E8" t="s">
+        <v>136</v>
       </c>
       <c r="I8" t="s">
         <v>124</v>
@@ -888,6 +1255,9 @@
       <c r="D9">
         <v>704</v>
       </c>
+      <c r="E9" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -899,6 +1269,9 @@
       <c r="D10">
         <v>705</v>
       </c>
+      <c r="E10" t="s">
+        <v>138</v>
+      </c>
       <c r="I10" t="s">
         <v>124</v>
       </c>
@@ -913,6 +1286,9 @@
       <c r="D11">
         <v>706</v>
       </c>
+      <c r="E11" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -924,6 +1300,9 @@
       <c r="D12">
         <v>707</v>
       </c>
+      <c r="E12" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -935,6 +1314,9 @@
       <c r="D13">
         <v>708</v>
       </c>
+      <c r="E13" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -946,6 +1328,9 @@
       <c r="D14">
         <v>709</v>
       </c>
+      <c r="E14" t="s">
+        <v>142</v>
+      </c>
       <c r="I14" t="s">
         <v>125</v>
       </c>
@@ -960,6 +1345,9 @@
       <c r="D15">
         <v>710</v>
       </c>
+      <c r="E15" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -971,6 +1359,9 @@
       <c r="D16">
         <v>711</v>
       </c>
+      <c r="E16" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
@@ -982,6 +1373,9 @@
       <c r="D17">
         <v>712</v>
       </c>
+      <c r="E17" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
@@ -993,6 +1387,9 @@
       <c r="D18">
         <v>713</v>
       </c>
+      <c r="E18" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
@@ -1004,6 +1401,9 @@
       <c r="D19">
         <v>714</v>
       </c>
+      <c r="E19" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
@@ -1015,6 +1415,9 @@
       <c r="D20">
         <v>715</v>
       </c>
+      <c r="E20" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
@@ -1026,6 +1429,9 @@
       <c r="D21">
         <v>716</v>
       </c>
+      <c r="E21" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
@@ -1037,6 +1443,9 @@
       <c r="D22">
         <v>717</v>
       </c>
+      <c r="E22" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
@@ -1048,6 +1457,9 @@
       <c r="D23">
         <v>718</v>
       </c>
+      <c r="E23" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
@@ -1059,6 +1471,9 @@
       <c r="D24">
         <v>719</v>
       </c>
+      <c r="E24" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -1070,6 +1485,9 @@
       <c r="D25">
         <v>720</v>
       </c>
+      <c r="E25" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
@@ -1081,6 +1499,9 @@
       <c r="D26">
         <v>721</v>
       </c>
+      <c r="E26" t="s">
+        <v>154</v>
+      </c>
       <c r="I26" t="s">
         <v>124</v>
       </c>
@@ -1095,6 +1516,9 @@
       <c r="D27">
         <v>722</v>
       </c>
+      <c r="E27" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
@@ -1106,6 +1530,9 @@
       <c r="D28">
         <v>723</v>
       </c>
+      <c r="E28" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
@@ -1117,6 +1544,9 @@
       <c r="D29">
         <v>724</v>
       </c>
+      <c r="E29" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
@@ -1128,6 +1558,9 @@
       <c r="D30">
         <v>725</v>
       </c>
+      <c r="E30" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
@@ -1139,6 +1572,9 @@
       <c r="D31">
         <v>726</v>
       </c>
+      <c r="E31" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
@@ -1150,8 +1586,11 @@
       <c r="D32">
         <v>727</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>43</v>
       </c>
@@ -1161,8 +1600,11 @@
       <c r="D33">
         <v>728</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>44</v>
       </c>
@@ -1172,8 +1614,11 @@
       <c r="D34">
         <v>729</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>45</v>
       </c>
@@ -1183,8 +1628,11 @@
       <c r="D35">
         <v>730</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>46</v>
       </c>
@@ -1194,8 +1642,11 @@
       <c r="D36">
         <v>731</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>47</v>
       </c>
@@ -1205,8 +1656,11 @@
       <c r="D37">
         <v>732</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>48</v>
       </c>
@@ -1216,8 +1670,11 @@
       <c r="D38">
         <v>733</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>49</v>
       </c>
@@ -1227,8 +1684,11 @@
       <c r="D39">
         <v>734</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>50</v>
       </c>
@@ -1238,8 +1698,11 @@
       <c r="D40">
         <v>735</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>51</v>
       </c>
@@ -1249,8 +1712,11 @@
       <c r="D41">
         <v>736</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>52</v>
       </c>
@@ -1260,8 +1726,11 @@
       <c r="D42">
         <v>737</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>53</v>
       </c>
@@ -1271,8 +1740,11 @@
       <c r="D43">
         <v>738</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>54</v>
       </c>
@@ -1282,8 +1754,11 @@
       <c r="D44">
         <v>739</v>
       </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>55</v>
       </c>
@@ -1293,8 +1768,11 @@
       <c r="D45">
         <v>740</v>
       </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>56</v>
       </c>
@@ -1304,8 +1782,11 @@
       <c r="D46">
         <v>741</v>
       </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>57</v>
       </c>
@@ -1315,8 +1796,11 @@
       <c r="D47">
         <v>742</v>
       </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>58</v>
       </c>
@@ -1326,8 +1810,11 @@
       <c r="D48">
         <v>743</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>59</v>
       </c>
@@ -1337,8 +1824,11 @@
       <c r="D49">
         <v>744</v>
       </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>60</v>
       </c>
@@ -1348,8 +1838,11 @@
       <c r="D50">
         <v>745</v>
       </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>61</v>
       </c>
@@ -1359,8 +1852,11 @@
       <c r="D51">
         <v>746</v>
       </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>62</v>
       </c>
@@ -1370,8 +1866,11 @@
       <c r="D52">
         <v>747</v>
       </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>63</v>
       </c>
@@ -1381,8 +1880,11 @@
       <c r="D53">
         <v>748</v>
       </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>64</v>
       </c>
@@ -1392,8 +1894,11 @@
       <c r="D54">
         <v>749</v>
       </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>65</v>
       </c>
@@ -1403,8 +1908,11 @@
       <c r="D55">
         <v>750</v>
       </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>66</v>
       </c>
@@ -1414,8 +1922,11 @@
       <c r="D56">
         <v>751</v>
       </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>67</v>
       </c>
@@ -1425,8 +1936,11 @@
       <c r="D57">
         <v>752</v>
       </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>68</v>
       </c>
@@ -1436,8 +1950,11 @@
       <c r="D58">
         <v>753</v>
       </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>69</v>
       </c>
@@ -1447,8 +1964,11 @@
       <c r="D59">
         <v>754</v>
       </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>70</v>
       </c>
@@ -1458,8 +1978,11 @@
       <c r="D60">
         <v>755</v>
       </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>71</v>
       </c>
@@ -1469,8 +1992,11 @@
       <c r="D61">
         <v>756</v>
       </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>72</v>
       </c>
@@ -1480,8 +2006,11 @@
       <c r="D62">
         <v>757</v>
       </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>73</v>
       </c>
@@ -1491,8 +2020,11 @@
       <c r="D63">
         <v>758</v>
       </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>74</v>
       </c>
@@ -1501,6 +2033,9 @@
       </c>
       <c r="D64">
         <v>759</v>
+      </c>
+      <c r="E64" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
@@ -1513,6 +2048,9 @@
       <c r="D65">
         <v>760</v>
       </c>
+      <c r="E65" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
@@ -1524,6 +2062,9 @@
       <c r="D66">
         <v>761</v>
       </c>
+      <c r="E66" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
@@ -1535,6 +2076,9 @@
       <c r="D67">
         <v>762</v>
       </c>
+      <c r="E67" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
@@ -1546,6 +2090,9 @@
       <c r="D68">
         <v>763</v>
       </c>
+      <c r="E68" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
@@ -1557,6 +2104,9 @@
       <c r="D69">
         <v>764</v>
       </c>
+      <c r="E69" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
@@ -1568,6 +2118,9 @@
       <c r="D70">
         <v>765</v>
       </c>
+      <c r="E70" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
@@ -1579,6 +2132,9 @@
       <c r="D71">
         <v>766</v>
       </c>
+      <c r="E71" t="s">
+        <v>199</v>
+      </c>
       <c r="I71" t="s">
         <v>124</v>
       </c>
@@ -1593,6 +2149,9 @@
       <c r="D72">
         <v>767</v>
       </c>
+      <c r="E72" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
@@ -1604,6 +2163,9 @@
       <c r="D73">
         <v>768</v>
       </c>
+      <c r="E73" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
@@ -1615,6 +2177,9 @@
       <c r="D74">
         <v>769</v>
       </c>
+      <c r="E74" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
@@ -1626,6 +2191,9 @@
       <c r="D75">
         <v>770</v>
       </c>
+      <c r="E75" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
@@ -1637,6 +2205,9 @@
       <c r="D76">
         <v>771</v>
       </c>
+      <c r="E76" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
@@ -1648,6 +2219,9 @@
       <c r="D77">
         <v>772</v>
       </c>
+      <c r="E77" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
@@ -1659,6 +2233,9 @@
       <c r="D78">
         <v>773</v>
       </c>
+      <c r="E78" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
@@ -1670,6 +2247,9 @@
       <c r="D79">
         <v>774</v>
       </c>
+      <c r="E79" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
@@ -1681,6 +2261,9 @@
       <c r="D80">
         <v>775</v>
       </c>
+      <c r="E80" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
@@ -1692,6 +2275,9 @@
       <c r="D81">
         <v>776</v>
       </c>
+      <c r="E81" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
@@ -1703,6 +2289,9 @@
       <c r="D82">
         <v>777</v>
       </c>
+      <c r="E82" t="s">
+        <v>210</v>
+      </c>
       <c r="I82" t="s">
         <v>125</v>
       </c>
@@ -1717,6 +2306,9 @@
       <c r="D83">
         <v>778</v>
       </c>
+      <c r="E83" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
@@ -1728,6 +2320,9 @@
       <c r="D84">
         <v>779</v>
       </c>
+      <c r="E84" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
@@ -1739,6 +2334,9 @@
       <c r="D85">
         <v>780</v>
       </c>
+      <c r="E85" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
@@ -1750,6 +2348,9 @@
       <c r="D86">
         <v>781</v>
       </c>
+      <c r="E86" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
@@ -1761,6 +2362,9 @@
       <c r="D87">
         <v>782</v>
       </c>
+      <c r="E87" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
@@ -1772,6 +2376,9 @@
       <c r="D88">
         <v>783</v>
       </c>
+      <c r="E88" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
@@ -1783,6 +2390,9 @@
       <c r="D89">
         <v>784</v>
       </c>
+      <c r="E89" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
@@ -1794,6 +2404,9 @@
       <c r="D90">
         <v>785</v>
       </c>
+      <c r="E90" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
@@ -1805,6 +2418,9 @@
       <c r="D91">
         <v>786</v>
       </c>
+      <c r="E91" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
@@ -1816,6 +2432,9 @@
       <c r="D92">
         <v>787</v>
       </c>
+      <c r="E92" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
@@ -1827,6 +2446,9 @@
       <c r="D93">
         <v>788</v>
       </c>
+      <c r="E93" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
@@ -1838,6 +2460,9 @@
       <c r="D94">
         <v>789</v>
       </c>
+      <c r="E94" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
@@ -1849,6 +2474,9 @@
       <c r="D95">
         <v>790</v>
       </c>
+      <c r="E95" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
@@ -1860,6 +2488,9 @@
       <c r="D96">
         <v>791</v>
       </c>
+      <c r="E96" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
@@ -1871,6 +2502,9 @@
       <c r="D97">
         <v>792</v>
       </c>
+      <c r="E97" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
@@ -1882,6 +2516,9 @@
       <c r="D98">
         <v>793</v>
       </c>
+      <c r="E98" t="s">
+        <v>226</v>
+      </c>
       <c r="I98" t="s">
         <v>125</v>
       </c>
@@ -1896,6 +2533,9 @@
       <c r="D99">
         <v>794</v>
       </c>
+      <c r="E99" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
@@ -1907,6 +2547,9 @@
       <c r="D100">
         <v>795</v>
       </c>
+      <c r="E100" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
@@ -1918,6 +2561,9 @@
       <c r="D101">
         <v>796</v>
       </c>
+      <c r="E101" t="s">
+        <v>229</v>
+      </c>
       <c r="I101" t="s">
         <v>125</v>
       </c>
@@ -1932,6 +2578,9 @@
       <c r="D102">
         <v>797</v>
       </c>
+      <c r="E102" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
@@ -1943,6 +2592,12 @@
       <c r="D103">
         <v>798</v>
       </c>
+      <c r="E103" t="s">
+        <v>231</v>
+      </c>
+      <c r="I103" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
@@ -1954,6 +2609,12 @@
       <c r="D104">
         <v>799</v>
       </c>
+      <c r="E104" t="s">
+        <v>232</v>
+      </c>
+      <c r="I104" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
@@ -1965,6 +2626,9 @@
       <c r="D105">
         <v>800</v>
       </c>
+      <c r="E105" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
@@ -1976,6 +2640,9 @@
       <c r="D106">
         <v>801</v>
       </c>
+      <c r="E106" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
@@ -1987,6 +2654,9 @@
       <c r="D107">
         <v>802</v>
       </c>
+      <c r="E107" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
@@ -1998,6 +2668,9 @@
       <c r="D108">
         <v>803</v>
       </c>
+      <c r="E108" t="s">
+        <v>236</v>
+      </c>
       <c r="I108" t="s">
         <v>126</v>
       </c>
@@ -2012,6 +2685,9 @@
       <c r="D109">
         <v>804</v>
       </c>
+      <c r="E109" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
@@ -2023,6 +2699,12 @@
       <c r="D110">
         <v>805</v>
       </c>
+      <c r="E110" t="s">
+        <v>238</v>
+      </c>
+      <c r="I110" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
@@ -2034,6 +2716,9 @@
       <c r="D111">
         <v>806</v>
       </c>
+      <c r="E111" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
@@ -2045,8 +2730,11 @@
       <c r="D112">
         <v>807</v>
       </c>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E112" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>123</v>
       </c>
@@ -2055,6 +2743,9 @@
       </c>
       <c r="D113">
         <v>808</v>
+      </c>
+      <c r="E113" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
